--- a/MainCluster/Meta/Quest_archival_guidelines/Turtorial Island 2018 example.xlsx
+++ b/MainCluster/Meta/Quest_archival_guidelines/Turtorial Island 2018 example.xlsx
@@ -253,7 +253,7 @@
     <t xml:space="preserve">RS/Locs/Altar (ID 110959)</t>
   </si>
   <si>
-    <t xml:space="preserve">[[Aspects/Location|Loc spawns]] are included in the [[Info/RuneScape 3|RuneScape 3]] [[Aspects/Cache|cache]]&lt;ref name="Loc spawns in cache"&gt;Data directly entered in RuneLibris by [[User:manpaint|manpaint]] on 2025-05-16&lt;/ref&gt;</t>
+    <t xml:space="preserve">[[Aspects/Location|Loc spawns]] are included in the [[Info/RuneScape 3|RuneScape 3]] [[Aspects/Cache|cache]] {{SRC|Loc spawn}}</t>
   </si>
   <si>
     <t xml:space="preserve">{{Text|A shrine to the glory of Saradomin.}}&lt;ref name="Loc examines 2021-11-24"&gt;From [[Data/Loc examines 2021-11-24|Loc examines 2021-11-24]]&lt;/ref&gt;</t>
@@ -1762,16 +1762,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1783,12 +1773,12 @@
   <dimension ref="A1:Z979"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="C160" activeCellId="0" sqref="C160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="56.86"/>
